--- a/xlsxmaps/level_0012.xlsx
+++ b/xlsxmaps/level_0012.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB040A59-FE92-4049-B8D6-2472A02BEB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2C35E8-9DC7-4A56-A5A8-8AB71DD870F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 (4)" sheetId="9" r:id="rId1"/>
@@ -2228,7 +2228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8197F0-063B-4109-8103-3B2B5D9A079C}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2600,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C03924-C68A-42D2-BDE5-6E46C62AD279}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2673,11 +2673,11 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
         <v>42000002</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1">
